--- a/mentor-dashboard/data/Tasks.xlsx
+++ b/mentor-dashboard/data/Tasks.xlsx
@@ -1,122 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Code Jam "CV"</t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-cv.md</t>
-  </si>
-  <si>
-    <t>Checked</t>
-  </si>
-  <si>
-    <t>Checking</t>
-  </si>
-  <si>
-    <t>ментор сейчас проверяет</t>
+    <t xml:space="preserve">task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Jam "CV"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-cv.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ментор сейчас проверяет</t>
   </si>
   <si>
     <t xml:space="preserve">Code Jam "CoreJS" </t>
   </si>
   <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-corejs.md</t>
-  </si>
-  <si>
-    <t>ментор уже проверил</t>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-corejs.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ментор уже проверил</t>
   </si>
   <si>
     <t xml:space="preserve">Code Jam "DOM, DOM Events" </t>
   </si>
   <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-notification.md</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>студенты выполняют</t>
-  </si>
-  <si>
-    <t>Markup #1</t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/markup-2018q3.md</t>
-  </si>
-  <si>
-    <t>ToDo</t>
-  </si>
-  <si>
-    <t>надо будет скоро сделать</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS Activist - </t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/rs-school-activist.md</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/youtube.md</t>
-  </si>
-  <si>
-    <t>CodeJam "Scoreboard"</t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-scoreboard.md</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/game.md</t>
-  </si>
-  <si>
-    <t>Course work</t>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-notification.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">студенты выполняют</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markup #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/markup-2018q3.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToDo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надо будет скоро сделать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS Activist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/rs-school-activist.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/youtube.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeJam "Scoreboard"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-scoreboard.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/game.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <sz val="11.0"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
-    </font>
-    <font>
-      <u/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,61 +167,97 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
-    <col customWidth="1" min="2" max="2" width="89.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -189,7 +268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -206,7 +285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -223,7 +302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -240,7 +319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -257,7 +336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -268,7 +347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -279,7 +358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -290,7 +369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -301,7 +380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -310,21 +389,28 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C10">
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:C10" type="list">
       <formula1>Sheet1!$F$2:$F$5</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-cv.md"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-corejs.md"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-notification.md"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/markup-2018q3.md"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/rs-school-activist.md"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/youtube.md"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-scoreboard.md"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/game.md"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/mentor-dashboard/data/Tasks.xlsx
+++ b/mentor-dashboard/data/Tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">task</t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/youtube.md</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeJam "Scoreboard"</t>
+    <t xml:space="preserve">Code Jam "Scoreboard"</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-scoreboard.md</t>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">Course work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/presentation.md</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,6 +231,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -268,7 +278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -380,7 +390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -388,9 +398,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:C10" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="C2:C11" type="list">
       <formula1>Sheet1!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -404,6 +425,7 @@
     <hyperlink ref="B7" r:id="rId6" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/youtube.md"/>
     <hyperlink ref="B8" r:id="rId7" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/codejam-scoreboard.md"/>
     <hyperlink ref="B9" r:id="rId8" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/game.md"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://github.com/rolling-scopes-school/tasks/blob/2018-Q3/tasks/presentation.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
